--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>Service</t>
   </si>
@@ -61,60 +61,54 @@
     <t>01915</t>
   </si>
   <si>
-    <t>$473.23</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>$252.98</t>
+    <t>$77.91</t>
+  </si>
+  <si>
+    <t>$231.91</t>
+  </si>
+  <si>
+    <t>$150.17</t>
+  </si>
+  <si>
+    <t>$317.25</t>
+  </si>
+  <si>
+    <t>$549.37</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
+    <t>$15.86</t>
+  </si>
+  <si>
+    <t>$20.09</t>
+  </si>
+  <si>
+    <t>$24.32</t>
+  </si>
+  <si>
+    <t>$37.01</t>
+  </si>
+  <si>
+    <t>$49.70</t>
+  </si>
+  <si>
+    <t>$65.57</t>
+  </si>
+  <si>
+    <t>$12.69</t>
+  </si>
+  <si>
     <t>$19.04</t>
   </si>
   <si>
-    <t>$24.32</t>
-  </si>
-  <si>
-    <t>$28.55</t>
+    <t>$29.61</t>
   </si>
   <si>
     <t>$40.19</t>
   </si>
   <si>
-    <t>$52.88</t>
-  </si>
-  <si>
-    <t>$65.57</t>
-  </si>
-  <si>
-    <t>$77.91</t>
-  </si>
-  <si>
-    <t>$231.91</t>
-  </si>
-  <si>
-    <t>$15.86</t>
-  </si>
-  <si>
-    <t>$20.09</t>
-  </si>
-  <si>
-    <t>$37.01</t>
-  </si>
-  <si>
-    <t>$49.70</t>
-  </si>
-  <si>
-    <t>$12.69</t>
-  </si>
-  <si>
-    <t>$29.61</t>
-  </si>
-  <si>
     <t>$48.65</t>
   </si>
   <si>
@@ -128,12 +122,6 @@
   </si>
   <si>
     <t>$105.75</t>
-  </si>
-  <si>
-    <t>$150.17</t>
-  </si>
-  <si>
-    <t>$317.25</t>
   </si>
 </sst>
 </file>
@@ -143,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -159,6 +147,10 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,11 +183,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -206,10 +211,23 @@
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="40" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="8" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -543,7 +561,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E2" sqref="E2:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -597,15 +615,10 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>19.04</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
@@ -618,15 +631,10 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>24.32</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
@@ -639,15 +647,10 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>28.55</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
@@ -660,15 +663,10 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>40.19</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="13"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
@@ -681,15 +679,10 @@
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>52.88</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E6" s="13"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
@@ -702,36 +695,26 @@
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>65.569999999999993</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E7" s="13"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="9">
-        <v>76.41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
@@ -744,14 +727,14 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
-        <v>191.91</v>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -765,14 +748,14 @@
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -786,14 +769,14 @@
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -807,14 +790,14 @@
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -828,14 +811,14 @@
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -849,14 +832,14 @@
       <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -870,14 +853,14 @@
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -891,14 +874,14 @@
       <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>12.69</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -912,14 +895,14 @@
       <c r="C17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>15.86</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -933,14 +916,14 @@
       <c r="C18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>19.04</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -954,14 +937,14 @@
       <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>29.61</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -975,14 +958,14 @@
       <c r="C20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>40.19</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -996,14 +979,14 @@
       <c r="C21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>48.65</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1017,14 +1000,14 @@
       <c r="C22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="10">
         <v>38.07</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1038,14 +1021,14 @@
       <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="10">
         <v>48.65</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1059,14 +1042,14 @@
       <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="10">
         <v>57.11</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1080,14 +1063,14 @@
       <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="10">
         <v>80.37</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1101,14 +1084,14 @@
       <c r="C26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="10">
         <v>105.75</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1122,14 +1105,14 @@
       <c r="C27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="10">
         <v>105.75</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1143,14 +1126,14 @@
       <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="9">
-        <v>143.82</v>
+      <c r="D28" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1164,14 +1147,14 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="9">
-        <v>143.82</v>
+      <c r="D29" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1185,14 +1168,14 @@
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="9">
-        <v>483.81</v>
+      <c r="D30" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1206,43 +1189,39 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="9">
-        <v>252.98</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
+      <c r="D31" s="14">
+        <v>305.85000000000002</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="D32" s="10"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="10"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="10"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="10"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="10"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="10"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="10"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="4:4">
-      <c r="D39" s="10"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="10"/>
+      <c r="D40" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
@@ -1262,6 +1241,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="42">
   <si>
     <t>Service</t>
   </si>
@@ -73,55 +73,73 @@
     <t>$317.25</t>
   </si>
   <si>
+    <t>$19.04</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>$24.32</t>
+  </si>
+  <si>
+    <t>$28.55</t>
+  </si>
+  <si>
+    <t>$40.19</t>
+  </si>
+  <si>
+    <t>$52.88</t>
+  </si>
+  <si>
+    <t>$65.57</t>
+  </si>
+  <si>
+    <t>$15.86</t>
+  </si>
+  <si>
+    <t>$20.09</t>
+  </si>
+  <si>
+    <t>$37.01</t>
+  </si>
+  <si>
+    <t>$49.70</t>
+  </si>
+  <si>
+    <t>$12.69</t>
+  </si>
+  <si>
+    <t>$29.61</t>
+  </si>
+  <si>
+    <t>$48.65</t>
+  </si>
+  <si>
+    <t>$38.07</t>
+  </si>
+  <si>
+    <t>$57.11</t>
+  </si>
+  <si>
+    <t>$80.37</t>
+  </si>
+  <si>
+    <t>$105.75</t>
+  </si>
+  <si>
+    <t>$473.23</t>
+  </si>
+  <si>
     <t>$549.37</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>$15.86</t>
-  </si>
-  <si>
-    <t>$20.09</t>
-  </si>
-  <si>
-    <t>$24.32</t>
-  </si>
-  <si>
-    <t>$37.01</t>
-  </si>
-  <si>
-    <t>$49.70</t>
-  </si>
-  <si>
-    <t>$65.57</t>
-  </si>
-  <si>
-    <t>$12.69</t>
-  </si>
-  <si>
-    <t>$19.04</t>
-  </si>
-  <si>
-    <t>$29.61</t>
-  </si>
-  <si>
-    <t>$40.19</t>
-  </si>
-  <si>
-    <t>$48.65</t>
-  </si>
-  <si>
-    <t>$38.07</t>
-  </si>
-  <si>
-    <t>$57.11</t>
-  </si>
-  <si>
-    <t>$80.37</t>
-  </si>
-  <si>
-    <t>$105.75</t>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>$82.49</t>
+  </si>
+  <si>
+    <t>$252.98</t>
   </si>
 </sst>
 </file>
@@ -148,8 +166,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,19 +192,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -221,12 +228,12 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="8" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="8" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,7 +625,12 @@
       <c r="D2" s="10">
         <v>19.04</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
@@ -634,7 +646,12 @@
       <c r="D3" s="10">
         <v>24.32</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
@@ -650,7 +667,12 @@
       <c r="D4" s="10">
         <v>28.55</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
@@ -666,7 +688,12 @@
       <c r="D5" s="10">
         <v>40.19</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
@@ -682,7 +709,12 @@
       <c r="D6" s="10">
         <v>52.88</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
@@ -698,7 +730,12 @@
       <c r="D7" s="10">
         <v>65.569999999999993</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
@@ -711,10 +748,15 @@
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
@@ -727,7 +769,7 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
@@ -752,7 +794,7 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -773,7 +815,7 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -794,7 +836,7 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -815,7 +857,7 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -836,7 +878,7 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -857,7 +899,7 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -878,7 +920,7 @@
         <v>12.69</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -899,7 +941,7 @@
         <v>15.86</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -920,7 +962,7 @@
         <v>19.04</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -941,7 +983,7 @@
         <v>29.61</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -962,7 +1004,7 @@
         <v>40.19</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -983,7 +1025,7 @@
         <v>48.65</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -1004,7 +1046,7 @@
         <v>38.07</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
@@ -1025,7 +1067,7 @@
         <v>48.65</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -1046,7 +1088,7 @@
         <v>57.11</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
@@ -1067,7 +1109,7 @@
         <v>80.37</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -1088,7 +1130,7 @@
         <v>105.75</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -1109,7 +1151,7 @@
         <v>105.75</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
@@ -1126,7 +1168,7 @@
       <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
@@ -1147,7 +1189,7 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
@@ -1168,11 +1210,11 @@
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>19</v>
+      <c r="D30" s="14">
+        <v>473.23</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
@@ -1189,11 +1231,15 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="14">
-        <v>305.85000000000002</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
+      <c r="D31" s="11">
+        <v>252.98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="41">
   <si>
     <t>Service</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>$82.49</t>
-  </si>
-  <si>
-    <t>$252.98</t>
   </si>
 </sst>
 </file>
@@ -565,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -689,10 +686,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -1234,12 +1231,8 @@
       <c r="D31" s="11">
         <v>252.98</v>
       </c>
-      <c r="E31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="41">
   <si>
     <t>Service</t>
   </si>
@@ -73,9 +73,6 @@
     <t>$317.25</t>
   </si>
   <si>
-    <t>$549.37</t>
-  </si>
-  <si>
     <t>$473.23</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>$105.75</t>
+  </si>
+  <si>
+    <t>$70.85</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -162,10 +162,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,24 +194,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -233,15 +216,11 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="8" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,10 +613,10 @@
         <v>19.04</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -655,10 +634,10 @@
         <v>24.32</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -676,10 +655,10 @@
         <v>28.55</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -697,10 +676,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -718,10 +697,10 @@
         <v>52.88</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -739,10 +718,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -756,14 +735,14 @@
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -777,14 +756,14 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -802,10 +781,10 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -823,10 +802,10 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -844,10 +823,10 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -865,10 +844,10 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -886,10 +865,10 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -907,10 +886,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -928,10 +907,10 @@
         <v>12.69</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -949,10 +928,10 @@
         <v>15.86</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -970,10 +949,10 @@
         <v>19.04</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -991,10 +970,10 @@
         <v>29.61</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1012,10 +991,10 @@
         <v>40.19</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1033,10 +1012,10 @@
         <v>48.65</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1054,10 +1033,10 @@
         <v>38.07</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1075,10 +1054,10 @@
         <v>48.65</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1096,10 +1075,10 @@
         <v>57.11</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1117,10 +1096,10 @@
         <v>80.37</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1138,10 +1117,10 @@
         <v>105.75</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1159,10 +1138,10 @@
         <v>105.75</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1176,14 +1155,14 @@
       <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1197,14 +1176,14 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1218,14 +1197,14 @@
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1239,14 +1218,14 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="14">
-        <v>305.85000000000002</v>
+      <c r="D31" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" s="7"/>
     </row>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
   <si>
     <t>Service</t>
   </si>
@@ -76,9 +76,6 @@
     <t>$473.23</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>$252.98</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>$105.75</t>
-  </si>
-  <si>
-    <t>$70.85</t>
   </si>
 </sst>
 </file>
@@ -552,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,10 +607,10 @@
         <v>19.04</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -634,10 +628,10 @@
         <v>24.32</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -655,10 +649,10 @@
         <v>28.55</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -676,10 +670,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -697,10 +691,10 @@
         <v>52.88</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -718,10 +712,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -742,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -763,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -781,10 +775,10 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -802,10 +796,10 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -823,10 +817,10 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -844,10 +838,10 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -865,10 +859,10 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -886,10 +880,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -907,10 +901,10 @@
         <v>12.69</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -928,10 +922,10 @@
         <v>15.86</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -949,10 +943,10 @@
         <v>19.04</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -970,10 +964,10 @@
         <v>29.61</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -991,10 +985,10 @@
         <v>40.19</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1012,10 +1006,10 @@
         <v>48.65</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1033,10 +1027,10 @@
         <v>38.07</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1054,10 +1048,10 @@
         <v>48.65</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1075,10 +1069,10 @@
         <v>57.11</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1096,10 +1090,10 @@
         <v>80.37</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1117,10 +1111,10 @@
         <v>105.75</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1138,10 +1132,10 @@
         <v>105.75</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1162,7 +1156,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1183,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1204,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1219,13 +1213,13 @@
         <v>5</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="7"/>
     </row>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Service</t>
   </si>
@@ -73,64 +73,7 @@
     <t>$317.25</t>
   </si>
   <si>
-    <t>$473.23</t>
-  </si>
-  <si>
-    <t>$252.98</t>
-  </si>
-  <si>
-    <t>$19.04</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>$24.32</t>
-  </si>
-  <si>
-    <t>$28.55</t>
-  </si>
-  <si>
-    <t>$40.19</t>
-  </si>
-  <si>
-    <t>$52.88</t>
-  </si>
-  <si>
-    <t>$65.57</t>
-  </si>
-  <si>
-    <t>$15.86</t>
-  </si>
-  <si>
-    <t>$20.09</t>
-  </si>
-  <si>
-    <t>$37.01</t>
-  </si>
-  <si>
-    <t>$49.70</t>
-  </si>
-  <si>
-    <t>$12.69</t>
-  </si>
-  <si>
-    <t>$29.61</t>
-  </si>
-  <si>
-    <t>$48.65</t>
-  </si>
-  <si>
-    <t>$38.07</t>
-  </si>
-  <si>
-    <t>$57.11</t>
-  </si>
-  <si>
-    <t>$80.37</t>
-  </si>
-  <si>
-    <t>$105.75</t>
+    <t>$549.37</t>
   </si>
 </sst>
 </file>
@@ -140,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -156,6 +99,10 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,37 +135,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="40" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -250,7 +214,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -264,10 +228,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -425,7 +389,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -434,13 +398,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -450,7 +414,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -459,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -468,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,12 +442,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -514,7 +478,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -533,7 +497,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -545,29 +509,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
+    <col min="19" max="19" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -606,12 +570,7 @@
       <c r="D2" s="10">
         <v>19.04</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
@@ -627,12 +586,7 @@
       <c r="D3" s="10">
         <v>24.32</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
@@ -648,12 +602,7 @@
       <c r="D4" s="10">
         <v>28.55</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
@@ -669,12 +618,7 @@
       <c r="D5" s="10">
         <v>40.19</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
+      <c r="E5" s="13"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
@@ -690,12 +634,7 @@
       <c r="D6" s="10">
         <v>52.88</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" s="13"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
@@ -711,12 +650,7 @@
       <c r="D7" s="10">
         <v>65.569999999999993</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="13"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
@@ -729,15 +663,10 @@
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
+      <c r="E8" s="13"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
@@ -750,14 +679,8 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -774,12 +697,6 @@
       <c r="D10" s="10">
         <v>15.86</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
@@ -795,12 +712,6 @@
       <c r="D11" s="10">
         <v>20.09</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
@@ -816,12 +727,6 @@
       <c r="D12" s="10">
         <v>24.32</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
@@ -837,12 +742,6 @@
       <c r="D13" s="10">
         <v>37.01</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
@@ -858,12 +757,6 @@
       <c r="D14" s="10">
         <v>49.7</v>
       </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7">
@@ -879,12 +772,6 @@
       <c r="D15" s="10">
         <v>65.569999999999993</v>
       </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
@@ -900,12 +787,6 @@
       <c r="D16" s="10">
         <v>12.69</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">
@@ -921,12 +802,6 @@
       <c r="D17" s="10">
         <v>15.86</v>
       </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
@@ -942,12 +817,6 @@
       <c r="D18" s="10">
         <v>19.04</v>
       </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7">
@@ -963,12 +832,6 @@
       <c r="D19" s="10">
         <v>29.61</v>
       </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7">
@@ -984,12 +847,6 @@
       <c r="D20" s="10">
         <v>40.19</v>
       </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7">
@@ -1005,12 +862,6 @@
       <c r="D21" s="10">
         <v>48.65</v>
       </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
@@ -1026,12 +877,6 @@
       <c r="D22" s="10">
         <v>38.07</v>
       </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -1047,12 +892,6 @@
       <c r="D23" s="10">
         <v>48.65</v>
       </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
@@ -1068,12 +907,6 @@
       <c r="D24" s="10">
         <v>57.11</v>
       </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
@@ -1089,12 +922,6 @@
       <c r="D25" s="10">
         <v>80.37</v>
       </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
@@ -1110,12 +937,6 @@
       <c r="D26" s="10">
         <v>105.75</v>
       </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
@@ -1131,12 +952,6 @@
       <c r="D27" s="10">
         <v>105.75</v>
       </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
@@ -1149,14 +964,8 @@
       <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1170,14 +979,8 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1191,14 +994,8 @@
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s">
-        <v>22</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1212,15 +1009,11 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
+      <c r="D31" s="14">
+        <v>305.85000000000002</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
@@ -1252,22 +1045,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>
@@ -73,7 +73,67 @@
     <t>$317.25</t>
   </si>
   <si>
-    <t>$549.37</t>
+    <t>$19.04</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>$24.32</t>
+  </si>
+  <si>
+    <t>$28.55</t>
+  </si>
+  <si>
+    <t>$40.19</t>
+  </si>
+  <si>
+    <t>$52.88</t>
+  </si>
+  <si>
+    <t>$65.57</t>
+  </si>
+  <si>
+    <t>$15.86</t>
+  </si>
+  <si>
+    <t>$20.09</t>
+  </si>
+  <si>
+    <t>$37.01</t>
+  </si>
+  <si>
+    <t>$49.70</t>
+  </si>
+  <si>
+    <t>$12.69</t>
+  </si>
+  <si>
+    <t>$29.61</t>
+  </si>
+  <si>
+    <t>$48.65</t>
+  </si>
+  <si>
+    <t>$38.07</t>
+  </si>
+  <si>
+    <t>$57.11</t>
+  </si>
+  <si>
+    <t>$80.37</t>
+  </si>
+  <si>
+    <t>$105.75</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>$473.23</t>
+  </si>
+  <si>
+    <t>$252.98</t>
   </si>
 </sst>
 </file>
@@ -83,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -99,10 +159,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,24 +191,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -170,15 +213,8 @@
     <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,7 +549,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D30" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,7 +606,12 @@
       <c r="D2" s="10">
         <v>19.04</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
@@ -586,7 +627,12 @@
       <c r="D3" s="10">
         <v>24.32</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
@@ -602,7 +648,12 @@
       <c r="D4" s="10">
         <v>28.55</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
@@ -618,7 +669,12 @@
       <c r="D5" s="10">
         <v>40.19</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
@@ -634,7 +690,12 @@
       <c r="D6" s="10">
         <v>52.88</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
@@ -650,7 +711,12 @@
       <c r="D7" s="10">
         <v>65.569999999999993</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
@@ -663,10 +729,15 @@
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
@@ -679,8 +750,14 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -697,6 +774,12 @@
       <c r="D10" s="10">
         <v>15.86</v>
       </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
@@ -712,6 +795,12 @@
       <c r="D11" s="10">
         <v>20.09</v>
       </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
@@ -727,6 +816,12 @@
       <c r="D12" s="10">
         <v>24.32</v>
       </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
@@ -742,6 +837,12 @@
       <c r="D13" s="10">
         <v>37.01</v>
       </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
@@ -757,6 +858,12 @@
       <c r="D14" s="10">
         <v>49.7</v>
       </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7">
@@ -772,6 +879,12 @@
       <c r="D15" s="10">
         <v>65.569999999999993</v>
       </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
@@ -787,6 +900,12 @@
       <c r="D16" s="10">
         <v>12.69</v>
       </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">
@@ -802,6 +921,12 @@
       <c r="D17" s="10">
         <v>15.86</v>
       </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
@@ -817,6 +942,12 @@
       <c r="D18" s="10">
         <v>19.04</v>
       </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7">
@@ -832,6 +963,12 @@
       <c r="D19" s="10">
         <v>29.61</v>
       </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7">
@@ -847,6 +984,12 @@
       <c r="D20" s="10">
         <v>40.19</v>
       </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7">
@@ -862,6 +1005,12 @@
       <c r="D21" s="10">
         <v>48.65</v>
       </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
@@ -877,6 +1026,12 @@
       <c r="D22" s="10">
         <v>38.07</v>
       </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -892,6 +1047,12 @@
       <c r="D23" s="10">
         <v>48.65</v>
       </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
@@ -907,6 +1068,12 @@
       <c r="D24" s="10">
         <v>57.11</v>
       </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
@@ -922,6 +1089,12 @@
       <c r="D25" s="10">
         <v>80.37</v>
       </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
@@ -937,6 +1110,12 @@
       <c r="D26" s="10">
         <v>105.75</v>
       </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
@@ -952,6 +1131,12 @@
       <c r="D27" s="10">
         <v>105.75</v>
       </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
@@ -964,8 +1149,14 @@
       <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -979,8 +1170,14 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -994,8 +1191,14 @@
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>19</v>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1009,11 +1212,15 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="14">
-        <v>305.85000000000002</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:D31"/>
@@ -554,20 +554,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1198,7 +1198,7 @@
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1219,7 +1219,7 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7"/>
     </row>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="47">
   <si>
     <t>Service</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>$252.98</t>
+  </si>
+  <si>
+    <t>$526.11</t>
+  </si>
+  <si>
+    <t>$61.34</t>
+  </si>
+  <si>
+    <t>$66.62</t>
+  </si>
+  <si>
+    <t>$62.39</t>
+  </si>
+  <si>
+    <t>$70.85</t>
+  </si>
+  <si>
+    <t>$82.49</t>
+  </si>
+  <si>
+    <t>$95.18</t>
   </si>
 </sst>
 </file>
@@ -193,32 +214,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="40" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -250,7 +271,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -264,10 +285,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -425,7 +446,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -434,13 +455,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -450,7 +471,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -459,7 +480,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -468,7 +489,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,12 +499,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -514,7 +535,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -533,7 +554,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -545,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
@@ -607,10 +628,10 @@
         <v>19.04</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -628,10 +649,10 @@
         <v>24.32</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -649,10 +670,10 @@
         <v>28.55</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -670,10 +691,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -691,10 +712,10 @@
         <v>52.88</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -712,10 +733,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -733,10 +754,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -754,10 +775,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -775,10 +796,10 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -796,10 +817,10 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -817,10 +838,10 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -838,10 +859,10 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -859,10 +880,10 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -880,10 +901,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1195,10 +1216,10 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1252,22 +1273,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="47">
   <si>
     <t>Service</t>
   </si>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:D31"/>
@@ -628,10 +628,10 @@
         <v>19.04</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -649,10 +649,10 @@
         <v>24.32</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -670,10 +670,10 @@
         <v>28.55</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -691,10 +691,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -712,10 +712,10 @@
         <v>52.88</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -733,10 +733,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -754,10 +754,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -775,10 +775,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -796,10 +796,10 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -817,10 +817,10 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -838,10 +838,10 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -859,10 +859,10 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -880,10 +880,10 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -901,10 +901,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1216,10 +1216,10 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7"/>
     </row>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="47">
   <si>
     <t>Service</t>
   </si>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:D31"/>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="73">
   <si>
     <t>Service</t>
   </si>
@@ -155,6 +155,84 @@
   </si>
   <si>
     <t>$95.18</t>
+  </si>
+  <si>
+    <t>$18.40</t>
+  </si>
+  <si>
+    <t>$19.73</t>
+  </si>
+  <si>
+    <t>$27.61</t>
+  </si>
+  <si>
+    <t>$38.85</t>
+  </si>
+  <si>
+    <t>$41.36</t>
+  </si>
+  <si>
+    <t>$63.39</t>
+  </si>
+  <si>
+    <t>$74.80</t>
+  </si>
+  <si>
+    <t>$210.32</t>
+  </si>
+  <si>
+    <t>$6.00</t>
+  </si>
+  <si>
+    <t>$24.00</t>
+  </si>
+  <si>
+    <t>$36.00</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>$6.18</t>
+  </si>
+  <si>
+    <t>$13.55</t>
+  </si>
+  <si>
+    <t>$18.91</t>
+  </si>
+  <si>
+    <t>$29.42</t>
+  </si>
+  <si>
+    <t>$35.13</t>
+  </si>
+  <si>
+    <t>$48.33</t>
+  </si>
+  <si>
+    <t>$37.82</t>
+  </si>
+  <si>
+    <t>$56.73</t>
+  </si>
+  <si>
+    <t>$79.85</t>
+  </si>
+  <si>
+    <t>$105.06</t>
+  </si>
+  <si>
+    <t>$148.16</t>
+  </si>
+  <si>
+    <t>$287.20</t>
+  </si>
+  <si>
+    <t>$476.40</t>
+  </si>
+  <si>
+    <t>$273.68</t>
   </si>
 </sst>
 </file>
@@ -628,10 +706,10 @@
         <v>19.04</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -649,10 +727,10 @@
         <v>24.32</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -670,10 +748,10 @@
         <v>28.55</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -691,10 +769,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -712,10 +790,10 @@
         <v>52.88</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -733,10 +811,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -754,10 +832,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -775,10 +853,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -796,10 +874,10 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -817,10 +895,10 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -838,10 +916,10 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -859,10 +937,10 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -880,10 +958,10 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -901,10 +979,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -922,10 +1000,10 @@
         <v>12.69</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -943,10 +1021,10 @@
         <v>15.86</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -964,10 +1042,10 @@
         <v>19.04</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -985,10 +1063,10 @@
         <v>29.61</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1006,10 +1084,10 @@
         <v>40.19</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1027,10 +1105,10 @@
         <v>48.65</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1048,10 +1126,10 @@
         <v>38.07</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1069,10 +1147,10 @@
         <v>48.65</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1090,10 +1168,10 @@
         <v>57.11</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1111,10 +1189,10 @@
         <v>80.37</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1132,10 +1210,10 @@
         <v>105.75</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1153,10 +1231,10 @@
         <v>105.75</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1174,10 +1252,10 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1195,10 +1273,10 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1216,10 +1294,10 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1237,10 +1315,10 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G31" s="7"/>
     </row>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="73">
   <si>
     <t>Service</t>
   </si>
@@ -706,10 +706,10 @@
         <v>19.04</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -727,10 +727,10 @@
         <v>24.32</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -748,10 +748,10 @@
         <v>28.55</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -769,10 +769,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -790,10 +790,10 @@
         <v>52.88</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -811,10 +811,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -832,10 +832,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -853,10 +853,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -874,10 +874,10 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -895,10 +895,10 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -916,10 +916,10 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -937,10 +937,10 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -958,10 +958,10 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -979,10 +979,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1000,10 +1000,10 @@
         <v>12.69</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -1021,10 +1021,10 @@
         <v>15.86</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -1042,10 +1042,10 @@
         <v>19.04</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -1063,10 +1063,10 @@
         <v>29.61</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1084,10 +1084,10 @@
         <v>40.19</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1105,10 +1105,10 @@
         <v>48.65</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1126,10 +1126,10 @@
         <v>38.07</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1147,10 +1147,10 @@
         <v>48.65</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1168,10 +1168,10 @@
         <v>57.11</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1189,10 +1189,10 @@
         <v>80.37</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1210,10 +1210,10 @@
         <v>105.75</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1231,10 +1231,10 @@
         <v>105.75</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1252,10 +1252,10 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1273,10 +1273,10 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1294,10 +1294,10 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1315,10 +1315,10 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7"/>
     </row>

--- a/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="73">
   <si>
     <t>Service</t>
   </si>
